--- a/public/download/userguide.xlsx
+++ b/public/download/userguide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7560"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>OVERTIME BULK REQUEST GUIDE</t>
   </si>
@@ -55,7 +55,7 @@
     <t>1 = MIS</t>
   </si>
   <si>
-    <t>dd/mm/yyyy</t>
+    <t>mm/dd/yyyy</t>
   </si>
   <si>
     <t>1  =  Dayshift</t>
@@ -70,10 +70,10 @@
     <t>Done pcba prod raw tags</t>
   </si>
   <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
-    <t>05:00:00</t>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
   </si>
   <si>
     <t>2 = Facilities</t>
@@ -91,6 +91,9 @@
     <t>3 = HR Migz</t>
   </si>
   <si>
+    <t>hr/min(24hr)</t>
+  </si>
+  <si>
     <t>4 = SM</t>
   </si>
   <si>
@@ -109,28 +112,29 @@
     <t>8 = SMT</t>
   </si>
   <si>
-    <t>NOTE:</t>
+    <t>NOTE:
+This is a guide only for the right usage of bulk request. Please follow all instruction above and do not change the format of the template for faster transaction of requesting overtime. Any information inputted will be seen by your Manager so be careful!</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>This isa guide only for the right usage of bulk request. Please follow all instruction above 
-and do not change the format of the template for faster transaction of requesting overtime.</t>
+    <t>This is a guide only for the right usage of bulk request. Please follow all instruction above and do not change the format of the template for faster transaction of requesting overtime. Any information inputted will be seen by your Manager so be careful!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +163,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -169,135 +286,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,37 +334,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,149 +508,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,6 +562,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -555,21 +592,21 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,9 +637,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,38 +699,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,135 +722,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -840,40 +871,76 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,69 +1262,69 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.9333333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="4:7">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="37" customHeight="1" spans="4:7">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" ht="15" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1268,25 +1335,25 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J4">
@@ -1294,81 +1361,112 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9">
+        <v>43885</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="27" customHeight="1" spans="2:5">
-      <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" ht="31" customHeight="1" spans="1:5">
-      <c r="A15" s="13" t="s">
+    </row>
+    <row r="13" ht="15" spans="2:7">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" ht="19" customHeight="1" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" ht="16" customHeight="1" spans="1:6">
+      <c r="A15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" ht="12" customHeight="1" spans="1:4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" ht="12" customHeight="1" spans="1:5">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="2:5">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B15:E15"/>
+  <mergeCells count="3">
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="D1:F2"/>
+    <mergeCell ref="B15:E17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
